--- a/Excel/MonzonMedia.xlsx
+++ b/Excel/MonzonMedia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10221"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_085DD107D07EC40E6235547658DE567D87818695" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{609E407C-0CCF-FA44-B95F-9AEDF0CAEA5C}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_085DD107D07EC40E6235547658DE567D87818695" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{491A89E2-F7B4-874B-BB79-CEA1A03A3B5F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,12 +516,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.31640625" customWidth="1"/>
     <col min="2" max="2" width="47.21484375" customWidth="1"/>
+    <col min="3" max="3" width="11.97265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
